--- a/Proyecto_Final/Código/results_ant_lion_memetico/results_cec2017_10.xlsx
+++ b/Proyecto_Final/Código/results_ant_lion_memetico/results_cec2017_10.xlsx
@@ -579,94 +579,94 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>197643786</v>
+        <v>204595142</v>
       </c>
       <c r="D2">
-        <v>307391549200</v>
+        <v>503817591000</v>
       </c>
       <c r="E2">
-        <v>42601.541</v>
+        <v>36256.087</v>
       </c>
       <c r="F2">
-        <v>60.4784112</v>
+        <v>142.142131</v>
       </c>
       <c r="G2">
-        <v>44.230766</v>
+        <v>59.76180199999999</v>
       </c>
       <c r="H2">
-        <v>53.03991499999999</v>
+        <v>55.13094100000001</v>
       </c>
       <c r="I2">
-        <v>243.25671</v>
+        <v>401.93471</v>
       </c>
       <c r="J2">
-        <v>63.113509</v>
+        <v>62.88666500000001</v>
       </c>
       <c r="K2">
-        <v>1725.07228</v>
+        <v>1689.46743</v>
       </c>
       <c r="L2">
-        <v>1536.08865</v>
+        <v>1440.45472</v>
       </c>
       <c r="M2">
-        <v>434.9827700000001</v>
+        <v>505.2265399999999</v>
       </c>
       <c r="N2">
-        <v>33157807.1</v>
+        <v>28786355.94400001</v>
       </c>
       <c r="O2">
-        <v>15948.2913</v>
+        <v>10236.5248</v>
       </c>
       <c r="P2">
-        <v>5923.39511</v>
+        <v>12893.02646</v>
       </c>
       <c r="Q2">
-        <v>109381.6189</v>
+        <v>64202.23840000001</v>
       </c>
       <c r="R2">
-        <v>435.724816</v>
+        <v>474.44123</v>
       </c>
       <c r="S2">
-        <v>243.935837</v>
+        <v>389.10207</v>
       </c>
       <c r="T2">
-        <v>32737.29499999999</v>
+        <v>38254.59499999999</v>
       </c>
       <c r="U2">
-        <v>408788.2923</v>
+        <v>258462.262</v>
       </c>
       <c r="V2">
-        <v>275.47277</v>
+        <v>317.53452</v>
       </c>
       <c r="W2">
-        <v>250.83335</v>
+        <v>226.59171</v>
       </c>
       <c r="X2">
-        <v>164.72089</v>
+        <v>294.74745</v>
       </c>
       <c r="Y2">
-        <v>356.78633</v>
+        <v>354.35385</v>
       </c>
       <c r="Z2">
-        <v>372.64374</v>
+        <v>391.34229</v>
       </c>
       <c r="AA2">
-        <v>547.1499700000002</v>
+        <v>513.45947</v>
       </c>
       <c r="AB2">
-        <v>927.00559</v>
+        <v>942.0519899999999</v>
       </c>
       <c r="AC2">
-        <v>412.28554</v>
+        <v>413.7073100000001</v>
       </c>
       <c r="AD2">
-        <v>683.1840100000001</v>
+        <v>643.04561</v>
       </c>
       <c r="AE2">
-        <v>511.66322</v>
+        <v>545.95925</v>
       </c>
       <c r="AF2">
-        <v>5169079.9</v>
+        <v>5226299.9</v>
       </c>
       <c r="AG2">
         <v>10</v>
@@ -680,94 +680,94 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>17128697</v>
+        <v>7627522.970000001</v>
       </c>
       <c r="D3">
-        <v>307259919200</v>
+        <v>501727351000</v>
       </c>
       <c r="E3">
-        <v>38959.84899999999</v>
+        <v>30486.463</v>
       </c>
       <c r="F3">
-        <v>12.7772469</v>
+        <v>33.8701703</v>
       </c>
       <c r="G3">
-        <v>36.839262</v>
+        <v>38.134462</v>
       </c>
       <c r="H3">
-        <v>47.507922</v>
+        <v>51.483071</v>
       </c>
       <c r="I3">
-        <v>241.37521</v>
+        <v>398.29057</v>
       </c>
       <c r="J3">
-        <v>50.079199</v>
+        <v>53.15617999999999</v>
       </c>
       <c r="K3">
-        <v>1025.86012</v>
+        <v>1442.79847</v>
       </c>
       <c r="L3">
-        <v>1163.72275</v>
+        <v>1104.17149</v>
       </c>
       <c r="M3">
-        <v>217.117297</v>
+        <v>244.649791</v>
       </c>
       <c r="N3">
-        <v>4261194.359</v>
+        <v>7812335.949999998</v>
       </c>
       <c r="O3">
-        <v>4491.952439999999</v>
+        <v>5247.523790000001</v>
       </c>
       <c r="P3">
-        <v>1786.097004</v>
+        <v>2912.34107</v>
       </c>
       <c r="Q3">
-        <v>18367.17458</v>
+        <v>37091.26669999999</v>
       </c>
       <c r="R3">
-        <v>284.5001549999999</v>
+        <v>407.74949</v>
       </c>
       <c r="S3">
-        <v>235.045697</v>
+        <v>292.580599</v>
       </c>
       <c r="T3">
-        <v>19641.84110000001</v>
+        <v>22471.4104</v>
       </c>
       <c r="U3">
-        <v>73754.05889999999</v>
+        <v>116363.513</v>
       </c>
       <c r="V3">
-        <v>252.57942</v>
+        <v>310.07665</v>
       </c>
       <c r="W3">
-        <v>238.94142</v>
+        <v>218.38999</v>
       </c>
       <c r="X3">
-        <v>118.34078</v>
+        <v>124.08521</v>
       </c>
       <c r="Y3">
-        <v>342.72841</v>
+        <v>342.34256</v>
       </c>
       <c r="Z3">
-        <v>368.19968</v>
+        <v>371.3967699999999</v>
       </c>
       <c r="AA3">
-        <v>471.64513</v>
+        <v>465.96048</v>
       </c>
       <c r="AB3">
-        <v>817.0612400000001</v>
+        <v>831.35267</v>
       </c>
       <c r="AC3">
-        <v>406.30593</v>
+        <v>410.1904199999999</v>
       </c>
       <c r="AD3">
-        <v>614.34471</v>
+        <v>590.26117</v>
       </c>
       <c r="AE3">
-        <v>471.7174699999999</v>
+        <v>505.91171</v>
       </c>
       <c r="AF3">
-        <v>4844484.8</v>
+        <v>3903185.629</v>
       </c>
       <c r="AG3">
         <v>10</v>
@@ -781,94 +781,94 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2615043.202</v>
+        <v>190371.389</v>
       </c>
       <c r="D4">
-        <v>129281534200</v>
+        <v>325227181000</v>
       </c>
       <c r="E4">
-        <v>34397.938</v>
+        <v>27401.219</v>
       </c>
       <c r="F4">
-        <v>8.0680879</v>
+        <v>23.2223184</v>
       </c>
       <c r="G4">
-        <v>35.861054</v>
+        <v>36.82241799999999</v>
       </c>
       <c r="H4">
-        <v>45.330068</v>
+        <v>47.286146</v>
       </c>
       <c r="I4">
-        <v>240.20185</v>
+        <v>354.58229</v>
       </c>
       <c r="J4">
-        <v>49.474426</v>
+        <v>52.551751</v>
       </c>
       <c r="K4">
-        <v>987.7647400000002</v>
+        <v>1385.27445</v>
       </c>
       <c r="L4">
-        <v>1131.71017</v>
+        <v>1075.67409</v>
       </c>
       <c r="M4">
-        <v>195.695652</v>
+        <v>173.348987</v>
       </c>
       <c r="N4">
-        <v>3781099.291</v>
+        <v>3993747.768</v>
       </c>
       <c r="O4">
-        <v>4491.80407</v>
+        <v>5247.395169999999</v>
       </c>
       <c r="P4">
-        <v>1783.495034</v>
+        <v>2906.80342</v>
       </c>
       <c r="Q4">
-        <v>14690.32006</v>
+        <v>26044.0219</v>
       </c>
       <c r="R4">
-        <v>241.355764</v>
+        <v>371.53926</v>
       </c>
       <c r="S4">
-        <v>221.410399</v>
+        <v>252.365629</v>
       </c>
       <c r="T4">
-        <v>19640.0798</v>
+        <v>22468.9657</v>
       </c>
       <c r="U4">
-        <v>29143.61002</v>
+        <v>103305.679</v>
       </c>
       <c r="V4">
-        <v>250.24827</v>
+        <v>306.47974</v>
       </c>
       <c r="W4">
-        <v>236.46578</v>
+        <v>216.32057</v>
       </c>
       <c r="X4">
-        <v>113.92028</v>
+        <v>117.70906</v>
       </c>
       <c r="Y4">
-        <v>342.20808</v>
+        <v>341.84527</v>
       </c>
       <c r="Z4">
-        <v>367.66878</v>
+        <v>370.10541</v>
       </c>
       <c r="AA4">
-        <v>464.3533899999999</v>
+        <v>462.12811</v>
       </c>
       <c r="AB4">
-        <v>688.6766600000001</v>
+        <v>819.1225700000001</v>
       </c>
       <c r="AC4">
-        <v>405.5606</v>
+        <v>407.0388199999999</v>
       </c>
       <c r="AD4">
-        <v>597.43586</v>
+        <v>584.3247899999999</v>
       </c>
       <c r="AE4">
-        <v>437.87055</v>
+        <v>461.84426</v>
       </c>
       <c r="AF4">
-        <v>3843059.2</v>
+        <v>2391002.073</v>
       </c>
       <c r="AG4">
         <v>10</v>
@@ -882,94 +882,94 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>305756.50035</v>
+        <v>3947.417550000001</v>
       </c>
       <c r="D5">
-        <v>20256112600</v>
+        <v>267147667000</v>
       </c>
       <c r="E5">
-        <v>28347.27699999999</v>
+        <v>20426.56</v>
       </c>
       <c r="F5">
-        <v>7.0386962</v>
+        <v>13.440839796</v>
       </c>
       <c r="G5">
-        <v>35.52675499999999</v>
+        <v>36.597259</v>
       </c>
       <c r="H5">
-        <v>43.48727099999999</v>
+        <v>44.782692</v>
       </c>
       <c r="I5">
-        <v>224.08591</v>
+        <v>318.14681</v>
       </c>
       <c r="J5">
-        <v>49.35420800000001</v>
+        <v>52.53045899999999</v>
       </c>
       <c r="K5">
-        <v>825.4234400000001</v>
+        <v>1370.23716</v>
       </c>
       <c r="L5">
-        <v>1070.09676</v>
+        <v>1072.20813</v>
       </c>
       <c r="M5">
-        <v>171.20679</v>
+        <v>152.52484</v>
       </c>
       <c r="N5">
-        <v>3182545.242</v>
+        <v>3228131.284</v>
       </c>
       <c r="O5">
-        <v>4491.62553</v>
+        <v>5247.2073</v>
       </c>
       <c r="P5">
-        <v>1775.993118</v>
+        <v>1728.15404</v>
       </c>
       <c r="Q5">
-        <v>8477.337149999999</v>
+        <v>25783.8705</v>
       </c>
       <c r="R5">
-        <v>182.591259</v>
+        <v>276.9056999999999</v>
       </c>
       <c r="S5">
-        <v>181.026649</v>
+        <v>210.523705</v>
       </c>
       <c r="T5">
-        <v>19636.9078</v>
+        <v>22465.8552</v>
       </c>
       <c r="U5">
-        <v>28006.35954</v>
+        <v>54260.6156</v>
       </c>
       <c r="V5">
-        <v>220.54508</v>
+        <v>273.7234</v>
       </c>
       <c r="W5">
-        <v>233.3564</v>
+        <v>207.63493</v>
       </c>
       <c r="X5">
-        <v>112.83025</v>
+        <v>114.273</v>
       </c>
       <c r="Y5">
-        <v>341.90973</v>
+        <v>340.65969</v>
       </c>
       <c r="Z5">
-        <v>364.33649</v>
+        <v>365.0357</v>
       </c>
       <c r="AA5">
-        <v>462.54524</v>
+        <v>453.65606</v>
       </c>
       <c r="AB5">
-        <v>558.9940399999999</v>
+        <v>763.2070799999999</v>
       </c>
       <c r="AC5">
-        <v>403.9019499999999</v>
+        <v>405.07222</v>
       </c>
       <c r="AD5">
-        <v>579.71761</v>
+        <v>537.6098400000001</v>
       </c>
       <c r="AE5">
-        <v>413.30032</v>
+        <v>384.38654</v>
       </c>
       <c r="AF5">
-        <v>2396685.85</v>
+        <v>2154907.489</v>
       </c>
       <c r="AG5">
         <v>10</v>
@@ -983,94 +983,94 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>160266.14877421</v>
+        <v>3027.076865</v>
       </c>
       <c r="D6">
-        <v>18343574100</v>
+        <v>91811035000</v>
       </c>
       <c r="E6">
-        <v>14052.9094</v>
+        <v>9141.5353</v>
       </c>
       <c r="F6">
-        <v>6.607020800000001</v>
+        <v>5.276925048999999</v>
       </c>
       <c r="G6">
-        <v>32.161613</v>
+        <v>36.26637599999999</v>
       </c>
       <c r="H6">
-        <v>36.613318</v>
+        <v>41.557649</v>
       </c>
       <c r="I6">
-        <v>205.93576</v>
+        <v>288.57465</v>
       </c>
       <c r="J6">
-        <v>49.03307299999999</v>
+        <v>52.52229500000001</v>
       </c>
       <c r="K6">
-        <v>694.99906</v>
+        <v>1203.62454</v>
       </c>
       <c r="L6">
-        <v>999.43259</v>
+        <v>1043.12879</v>
       </c>
       <c r="M6">
-        <v>127.978252</v>
+        <v>130.046388</v>
       </c>
       <c r="N6">
-        <v>2605252.787</v>
+        <v>2011371.935</v>
       </c>
       <c r="O6">
-        <v>4490.930130000001</v>
+        <v>5246.489810000001</v>
       </c>
       <c r="P6">
-        <v>1306.547076</v>
+        <v>1685.45439</v>
       </c>
       <c r="Q6">
-        <v>6318.063700000001</v>
+        <v>14516.742</v>
       </c>
       <c r="R6">
-        <v>156.052068</v>
+        <v>239.667005</v>
       </c>
       <c r="S6">
-        <v>149.72395</v>
+        <v>170.760985</v>
       </c>
       <c r="T6">
-        <v>19626.528</v>
+        <v>21943.9667</v>
       </c>
       <c r="U6">
-        <v>25234.55738999999</v>
+        <v>42225.89411</v>
       </c>
       <c r="V6">
-        <v>192.507018</v>
+        <v>242.76952</v>
       </c>
       <c r="W6">
-        <v>213.427</v>
+        <v>199.77438</v>
       </c>
       <c r="X6">
-        <v>112.23661</v>
+        <v>110.72063</v>
       </c>
       <c r="Y6">
-        <v>337.74014</v>
+        <v>339.86703</v>
       </c>
       <c r="Z6">
-        <v>361.39979</v>
+        <v>359.48918</v>
       </c>
       <c r="AA6">
-        <v>461.40925</v>
+        <v>452.79391</v>
       </c>
       <c r="AB6">
-        <v>507.01271</v>
+        <v>652.01431</v>
       </c>
       <c r="AC6">
-        <v>400.78133</v>
+        <v>403.2556</v>
       </c>
       <c r="AD6">
-        <v>565.8250400000001</v>
+        <v>510.63362</v>
       </c>
       <c r="AE6">
-        <v>380.58319</v>
+        <v>355.47772</v>
       </c>
       <c r="AF6">
-        <v>1530728.13</v>
+        <v>1563541.37</v>
       </c>
       <c r="AG6">
         <v>10</v>
@@ -1084,94 +1084,94 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>13877.55036853</v>
+        <v>2613.263449999999</v>
       </c>
       <c r="D7">
-        <v>5739201467</v>
+        <v>39506709170</v>
       </c>
       <c r="E7">
-        <v>3030.94347</v>
+        <v>1533.94212</v>
       </c>
       <c r="F7">
-        <v>6.0223922</v>
+        <v>4.461124666</v>
       </c>
       <c r="G7">
-        <v>30.520365</v>
+        <v>32.908425</v>
       </c>
       <c r="H7">
-        <v>31.834326</v>
+        <v>37.33231499999999</v>
       </c>
       <c r="I7">
-        <v>149.18417</v>
+        <v>243.98453</v>
       </c>
       <c r="J7">
-        <v>48.930072</v>
+        <v>52.511564</v>
       </c>
       <c r="K7">
-        <v>581.5708</v>
+        <v>922.2702999999999</v>
       </c>
       <c r="L7">
-        <v>908.2468000000001</v>
+        <v>875.0213200000001</v>
       </c>
       <c r="M7">
-        <v>110.379473</v>
+        <v>115.981216</v>
       </c>
       <c r="N7">
-        <v>2029042.428</v>
+        <v>1488104.147</v>
       </c>
       <c r="O7">
-        <v>4489.627210000001</v>
+        <v>5245.149899999999</v>
       </c>
       <c r="P7">
-        <v>1000.047812</v>
+        <v>1578.24705</v>
       </c>
       <c r="Q7">
-        <v>4845.251490000001</v>
+        <v>8627.662800000002</v>
       </c>
       <c r="R7">
-        <v>126.839865</v>
+        <v>150.164609</v>
       </c>
       <c r="S7">
-        <v>127.193913</v>
+        <v>126.300028</v>
       </c>
       <c r="T7">
-        <v>19607.8769</v>
+        <v>21925.6423</v>
       </c>
       <c r="U7">
-        <v>23337.68994</v>
+        <v>23811.26315999999</v>
       </c>
       <c r="V7">
-        <v>178.55108</v>
+        <v>195.85398</v>
       </c>
       <c r="W7">
-        <v>199.58295</v>
+        <v>196.69523</v>
       </c>
       <c r="X7">
-        <v>111.96684</v>
+        <v>110.21706</v>
       </c>
       <c r="Y7">
-        <v>337.02051</v>
+        <v>337.25614</v>
       </c>
       <c r="Z7">
-        <v>360.44214</v>
+        <v>359.1751</v>
       </c>
       <c r="AA7">
-        <v>460.9921900000001</v>
+        <v>452.54464</v>
       </c>
       <c r="AB7">
-        <v>438.20857</v>
+        <v>569.88319</v>
       </c>
       <c r="AC7">
-        <v>399.54322</v>
+        <v>399.33009</v>
       </c>
       <c r="AD7">
-        <v>554.2214200000001</v>
+        <v>483.36072</v>
       </c>
       <c r="AE7">
-        <v>338.18776</v>
+        <v>345.68848</v>
       </c>
       <c r="AF7">
-        <v>1136853.398</v>
+        <v>1227593.655</v>
       </c>
       <c r="AG7">
         <v>10</v>
@@ -1185,94 +1185,94 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>6795.186204959999</v>
+        <v>2540.577119</v>
       </c>
       <c r="D8">
-        <v>2401325207</v>
+        <v>15552494970</v>
       </c>
       <c r="E8">
-        <v>499.538824</v>
+        <v>139.4701865</v>
       </c>
       <c r="F8">
-        <v>5.606645299999999</v>
+        <v>4.151593652000001</v>
       </c>
       <c r="G8">
-        <v>30.249555</v>
+        <v>32.79931699999999</v>
       </c>
       <c r="H8">
-        <v>30.973855</v>
+        <v>35.227084</v>
       </c>
       <c r="I8">
-        <v>126.617837</v>
+        <v>227.48472</v>
       </c>
       <c r="J8">
-        <v>45.713166</v>
+        <v>52.510072</v>
       </c>
       <c r="K8">
-        <v>484.8710199999999</v>
+        <v>752.0714500000001</v>
       </c>
       <c r="L8">
-        <v>822.6752899999999</v>
+        <v>808.2996200000001</v>
       </c>
       <c r="M8">
-        <v>92.268075</v>
+        <v>108.614783</v>
       </c>
       <c r="N8">
-        <v>1623776.623</v>
+        <v>1275994.645</v>
       </c>
       <c r="O8">
-        <v>4488.61303</v>
+        <v>5243.989520000001</v>
       </c>
       <c r="P8">
-        <v>489.642857</v>
+        <v>1370.08145</v>
       </c>
       <c r="Q8">
-        <v>4436.06525</v>
+        <v>5968.556330000001</v>
       </c>
       <c r="R8">
-        <v>114.784671</v>
+        <v>132.2296074</v>
       </c>
       <c r="S8">
-        <v>105.004802</v>
+        <v>118.327504</v>
       </c>
       <c r="T8">
-        <v>19592.98220000001</v>
+        <v>21910.629</v>
       </c>
       <c r="U8">
-        <v>13712.18638</v>
+        <v>17538.59974</v>
       </c>
       <c r="V8">
-        <v>161.994743</v>
+        <v>186.105107</v>
       </c>
       <c r="W8">
-        <v>185.65598</v>
+        <v>196.24423</v>
       </c>
       <c r="X8">
-        <v>111.92494</v>
+        <v>110.16801</v>
       </c>
       <c r="Y8">
-        <v>334.99663</v>
+        <v>334.7945599999999</v>
       </c>
       <c r="Z8">
-        <v>360.35392</v>
+        <v>359.08451</v>
       </c>
       <c r="AA8">
-        <v>460.03497</v>
+        <v>452.4408099999999</v>
       </c>
       <c r="AB8">
-        <v>433.16818</v>
+        <v>471.46707</v>
       </c>
       <c r="AC8">
-        <v>398.11686</v>
+        <v>398.78713</v>
       </c>
       <c r="AD8">
-        <v>551.59043</v>
+        <v>474.52197</v>
       </c>
       <c r="AE8">
-        <v>336.16092</v>
+        <v>342.9574699999999</v>
       </c>
       <c r="AF8">
-        <v>913559.5450000002</v>
+        <v>974593.1240000002</v>
       </c>
       <c r="AG8">
         <v>10</v>
@@ -1286,94 +1286,94 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>3408.06240616</v>
+        <v>2524.949479</v>
       </c>
       <c r="D9">
-        <v>1894528418</v>
+        <v>12855362840</v>
       </c>
       <c r="E9">
-        <v>14.20008019</v>
+        <v>1.036138608</v>
       </c>
       <c r="F9">
-        <v>5.1016739</v>
+        <v>3.817116405999999</v>
       </c>
       <c r="G9">
-        <v>28.94229</v>
+        <v>32.703732</v>
       </c>
       <c r="H9">
-        <v>28.562176</v>
+        <v>32.512736</v>
       </c>
       <c r="I9">
-        <v>117.730131</v>
+        <v>198.64727</v>
       </c>
       <c r="J9">
-        <v>42.02141</v>
+        <v>52.507024</v>
       </c>
       <c r="K9">
-        <v>425.67995</v>
+        <v>678.2547999999999</v>
       </c>
       <c r="L9">
-        <v>771.41659</v>
+        <v>804.00261</v>
       </c>
       <c r="M9">
-        <v>87.57538600000001</v>
+        <v>102.899317</v>
       </c>
       <c r="N9">
-        <v>1198509.059</v>
+        <v>1065214.158</v>
       </c>
       <c r="O9">
-        <v>4487.39231</v>
+        <v>5242.621779999999</v>
       </c>
       <c r="P9">
-        <v>483.410197</v>
+        <v>702.5353700000001</v>
       </c>
       <c r="Q9">
-        <v>4332.478</v>
+        <v>5692.69946</v>
       </c>
       <c r="R9">
-        <v>109.993799</v>
+        <v>120.1589834</v>
       </c>
       <c r="S9">
-        <v>91.07533099999999</v>
+        <v>116.143707</v>
       </c>
       <c r="T9">
-        <v>19574.7039</v>
+        <v>21892.7212</v>
       </c>
       <c r="U9">
-        <v>13419.93572</v>
+        <v>11794.31263</v>
       </c>
       <c r="V9">
-        <v>149.908207</v>
+        <v>157.173989</v>
       </c>
       <c r="W9">
-        <v>183.59028</v>
+        <v>171.32803</v>
       </c>
       <c r="X9">
-        <v>111.91562</v>
+        <v>110.158</v>
       </c>
       <c r="Y9">
-        <v>332.4792</v>
+        <v>334.53862</v>
       </c>
       <c r="Z9">
-        <v>358.2189999999999</v>
+        <v>359.0299099999999</v>
       </c>
       <c r="AA9">
-        <v>458.3334699999999</v>
+        <v>452.4408099999999</v>
       </c>
       <c r="AB9">
-        <v>423.97737</v>
+        <v>461.86076</v>
       </c>
       <c r="AC9">
-        <v>397.6757</v>
+        <v>397.52671</v>
       </c>
       <c r="AD9">
-        <v>549.0851</v>
+        <v>466.93969</v>
       </c>
       <c r="AE9">
-        <v>333.10002</v>
+        <v>337.33843</v>
       </c>
       <c r="AF9">
-        <v>613645.71</v>
+        <v>831525.8979999999</v>
       </c>
       <c r="AG9">
         <v>10</v>
@@ -1387,94 +1387,94 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>2878.13921439</v>
+        <v>2522.451845999999</v>
       </c>
       <c r="D10">
-        <v>1215336858</v>
+        <v>7318766940</v>
       </c>
       <c r="E10">
-        <v>0.06702581295999999</v>
+        <v>0.001874737446</v>
       </c>
       <c r="F10">
-        <v>4.6937934</v>
+        <v>3.513811775</v>
       </c>
       <c r="G10">
-        <v>28.863823</v>
+        <v>32.61472</v>
       </c>
       <c r="H10">
-        <v>26.644718</v>
+        <v>29.62148</v>
       </c>
       <c r="I10">
-        <v>111.124981</v>
+        <v>162.85586</v>
       </c>
       <c r="J10">
-        <v>41.712241</v>
+        <v>52.506141</v>
       </c>
       <c r="K10">
-        <v>387.686867</v>
+        <v>615.14528</v>
       </c>
       <c r="L10">
-        <v>738.0825799999999</v>
+        <v>801.95241</v>
       </c>
       <c r="M10">
-        <v>87.157988</v>
+        <v>101.152881</v>
       </c>
       <c r="N10">
-        <v>970860.2019999999</v>
+        <v>882451.6580000001</v>
       </c>
       <c r="O10">
-        <v>4106.090090000001</v>
+        <v>5241.261960000001</v>
       </c>
       <c r="P10">
-        <v>477.4840169999999</v>
+        <v>552.3261399999999</v>
       </c>
       <c r="Q10">
-        <v>4128.50818</v>
+        <v>4432.446449999999</v>
       </c>
       <c r="R10">
-        <v>107.213627</v>
+        <v>107.8902254</v>
       </c>
       <c r="S10">
-        <v>83.06456499999999</v>
+        <v>113.186033</v>
       </c>
       <c r="T10">
-        <v>19555.8865</v>
+        <v>21875.4588</v>
       </c>
       <c r="U10">
-        <v>12942.6967</v>
+        <v>10312.8943</v>
       </c>
       <c r="V10">
-        <v>138.83633</v>
+        <v>145.337076</v>
       </c>
       <c r="W10">
-        <v>172.82187</v>
+        <v>169.86537</v>
       </c>
       <c r="X10">
-        <v>111.91442</v>
+        <v>110.15677</v>
       </c>
       <c r="Y10">
-        <v>331.18751</v>
+        <v>331.59993</v>
       </c>
       <c r="Z10">
-        <v>358.18926</v>
+        <v>358.9624000000001</v>
       </c>
       <c r="AA10">
-        <v>458.24018</v>
+        <v>452.4408099999999</v>
       </c>
       <c r="AB10">
-        <v>416.14021</v>
+        <v>460.31303</v>
       </c>
       <c r="AC10">
-        <v>397.4681399999999</v>
+        <v>397.26916</v>
       </c>
       <c r="AD10">
-        <v>546.8720300000001</v>
+        <v>462.93199</v>
       </c>
       <c r="AE10">
-        <v>325.19459</v>
+        <v>325.6428400000001</v>
       </c>
       <c r="AF10">
-        <v>518651.613</v>
+        <v>652881.0869999999</v>
       </c>
       <c r="AG10">
         <v>10</v>
@@ -1488,94 +1488,94 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>2720.88100366</v>
+        <v>2521.721217</v>
       </c>
       <c r="D11">
-        <v>1210228216</v>
+        <v>2702389880</v>
       </c>
       <c r="E11">
-        <v>0.000171478566</v>
+        <v>5.432320149999999E-06</v>
       </c>
       <c r="F11">
-        <v>4.315328</v>
+        <v>3.22401647</v>
       </c>
       <c r="G11">
-        <v>28.835068</v>
+        <v>32.557229</v>
       </c>
       <c r="H11">
-        <v>22.474799</v>
+        <v>29.203113</v>
       </c>
       <c r="I11">
-        <v>90.978272</v>
+        <v>162.84986</v>
       </c>
       <c r="J11">
-        <v>40.101743</v>
+        <v>52.50556200000001</v>
       </c>
       <c r="K11">
-        <v>386.388044</v>
+        <v>573.41858</v>
       </c>
       <c r="L11">
-        <v>664.1310799999999</v>
+        <v>800.8082400000001</v>
       </c>
       <c r="M11">
-        <v>82.16028100000001</v>
+        <v>101.094772</v>
       </c>
       <c r="N11">
-        <v>805272.6730000001</v>
+        <v>731540.8600000001</v>
       </c>
       <c r="O11">
-        <v>4103.195269999999</v>
+        <v>5239.828649999999</v>
       </c>
       <c r="P11">
-        <v>475.66664</v>
+        <v>535.2246699999999</v>
       </c>
       <c r="Q11">
-        <v>2561.035</v>
+        <v>3133.01531</v>
       </c>
       <c r="R11">
-        <v>104.576323</v>
+        <v>93.5221554</v>
       </c>
       <c r="S11">
-        <v>81.16279300000001</v>
+        <v>108.928853</v>
       </c>
       <c r="T11">
-        <v>19536.4369</v>
+        <v>21857.2201</v>
       </c>
       <c r="U11">
-        <v>10344.15288</v>
+        <v>6694.243729999999</v>
       </c>
       <c r="V11">
-        <v>136.529002</v>
+        <v>131.970516</v>
       </c>
       <c r="W11">
-        <v>170.23</v>
+        <v>169.07151</v>
       </c>
       <c r="X11">
-        <v>111.91426</v>
+        <v>108.52369</v>
       </c>
       <c r="Y11">
-        <v>330.73132</v>
+        <v>331.1218</v>
       </c>
       <c r="Z11">
-        <v>358.1699199999999</v>
+        <v>358.92719</v>
       </c>
       <c r="AA11">
-        <v>457.62833</v>
+        <v>452.4408099999999</v>
       </c>
       <c r="AB11">
-        <v>415.33288</v>
+        <v>460.25747</v>
       </c>
       <c r="AC11">
-        <v>396.5577</v>
+        <v>396.86966</v>
       </c>
       <c r="AD11">
-        <v>546.3050999999999</v>
+        <v>461.14487</v>
       </c>
       <c r="AE11">
-        <v>303.2992700000001</v>
+        <v>321.2538000000001</v>
       </c>
       <c r="AF11">
-        <v>451329.6102299999</v>
+        <v>558755.8260000001</v>
       </c>
       <c r="AG11">
         <v>10</v>
@@ -1589,94 +1589,94 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>2691.23889408</v>
+        <v>2521.498298</v>
       </c>
       <c r="D12">
-        <v>1072695166</v>
+        <v>2564959240</v>
       </c>
       <c r="E12">
-        <v>1.064566174E-06</v>
+        <v>7.02782881E-08</v>
       </c>
       <c r="F12">
-        <v>4.022454600000001</v>
+        <v>2.9844252899</v>
       </c>
       <c r="G12">
-        <v>28.027287</v>
+        <v>32.55297</v>
       </c>
       <c r="H12">
-        <v>21.315156</v>
+        <v>28.257383</v>
       </c>
       <c r="I12">
-        <v>77.37681000000001</v>
+        <v>141.96191</v>
       </c>
       <c r="J12">
-        <v>35.685809</v>
+        <v>46.72074199999999</v>
       </c>
       <c r="K12">
-        <v>386.154824</v>
+        <v>519.3705400000001</v>
       </c>
       <c r="L12">
-        <v>654.56629</v>
+        <v>766.75702</v>
       </c>
       <c r="M12">
-        <v>81.88671399999998</v>
+        <v>101.071275</v>
       </c>
       <c r="N12">
-        <v>699978.183</v>
+        <v>628376.231</v>
       </c>
       <c r="O12">
-        <v>4038.79613</v>
+        <v>5238.821580000001</v>
       </c>
       <c r="P12">
-        <v>472.333366</v>
+        <v>427.1160699999999</v>
       </c>
       <c r="Q12">
-        <v>1960.76886</v>
+        <v>2627.075980000001</v>
       </c>
       <c r="R12">
-        <v>89.543014</v>
+        <v>89.2287414</v>
       </c>
       <c r="S12">
-        <v>76.45433699999998</v>
+        <v>93.26962900000001</v>
       </c>
       <c r="T12">
-        <v>19521.76289999999</v>
+        <v>21841.2565</v>
       </c>
       <c r="U12">
-        <v>8950.311830000001</v>
+        <v>6554.763191000001</v>
       </c>
       <c r="V12">
-        <v>132.33426</v>
+        <v>127.544392</v>
       </c>
       <c r="W12">
-        <v>169.69086</v>
+        <v>159.72208</v>
       </c>
       <c r="X12">
-        <v>111.91422</v>
+        <v>108.50996</v>
       </c>
       <c r="Y12">
-        <v>330.5143400000001</v>
+        <v>330.79159</v>
       </c>
       <c r="Z12">
-        <v>355.9395499999999</v>
+        <v>358.91384</v>
       </c>
       <c r="AA12">
-        <v>457.62833</v>
+        <v>452.4408099999999</v>
       </c>
       <c r="AB12">
-        <v>413.2245000000001</v>
+        <v>436.95589</v>
       </c>
       <c r="AC12">
-        <v>395.9421600000001</v>
+        <v>396.56167</v>
       </c>
       <c r="AD12">
-        <v>545.66134</v>
+        <v>456.69092</v>
       </c>
       <c r="AE12">
-        <v>300.69363</v>
+        <v>318.02107</v>
       </c>
       <c r="AF12">
-        <v>396524.82871</v>
+        <v>516556.442</v>
       </c>
       <c r="AG12">
         <v>10</v>
@@ -1690,94 +1690,94 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>2680.12036436</v>
+        <v>2521.412789</v>
       </c>
       <c r="D13">
-        <v>1069140726</v>
+        <v>2062782420</v>
       </c>
       <c r="E13">
-        <v>2.83078491E-09</v>
+        <v>3.590343950000001E-10</v>
       </c>
       <c r="F13">
-        <v>3.682438</v>
+        <v>2.7166613693</v>
       </c>
       <c r="G13">
-        <v>27.85811</v>
+        <v>32.52580500000001</v>
       </c>
       <c r="H13">
-        <v>19.683981</v>
+        <v>25.051344</v>
       </c>
       <c r="I13">
-        <v>69.43741700000001</v>
+        <v>140.216075</v>
       </c>
       <c r="J13">
-        <v>34.182568</v>
+        <v>44.77976</v>
       </c>
       <c r="K13">
-        <v>302.204883</v>
+        <v>440.62908</v>
       </c>
       <c r="L13">
-        <v>652.1632799999999</v>
+        <v>766.3718500000001</v>
       </c>
       <c r="M13">
-        <v>81.337784</v>
+        <v>99.739419</v>
       </c>
       <c r="N13">
-        <v>621223</v>
+        <v>527351.983</v>
       </c>
       <c r="O13">
-        <v>3810.020559999999</v>
+        <v>5217.14308</v>
       </c>
       <c r="P13">
-        <v>471.4886210000001</v>
+        <v>411.8130470000001</v>
       </c>
       <c r="Q13">
-        <v>1950.68209</v>
+        <v>1421.41547</v>
       </c>
       <c r="R13">
-        <v>81.861282</v>
+        <v>80.91006139999999</v>
       </c>
       <c r="S13">
-        <v>71.34536</v>
+        <v>86.45511400000001</v>
       </c>
       <c r="T13">
-        <v>17940.1561</v>
+        <v>21824.1725</v>
       </c>
       <c r="U13">
-        <v>8910.095379999999</v>
+        <v>6420.324479000001</v>
       </c>
       <c r="V13">
-        <v>130.432637</v>
+        <v>122.301146</v>
       </c>
       <c r="W13">
-        <v>167.1378</v>
+        <v>145.03969</v>
       </c>
       <c r="X13">
-        <v>111.91422</v>
+        <v>108.50533</v>
       </c>
       <c r="Y13">
-        <v>330.37309</v>
+        <v>330.7062</v>
       </c>
       <c r="Z13">
-        <v>355.29714</v>
+        <v>358.90615</v>
       </c>
       <c r="AA13">
-        <v>457.41808</v>
+        <v>452.4408099999999</v>
       </c>
       <c r="AB13">
-        <v>413.11372</v>
+        <v>419.94384</v>
       </c>
       <c r="AC13">
-        <v>395.69554</v>
+        <v>396.4978300000001</v>
       </c>
       <c r="AD13">
-        <v>539.09126</v>
+        <v>453.47495</v>
       </c>
       <c r="AE13">
-        <v>297.22843</v>
+        <v>315.56381</v>
       </c>
       <c r="AF13">
-        <v>383791.38494</v>
+        <v>484336.9180000001</v>
       </c>
       <c r="AG13">
         <v>10</v>
@@ -1791,94 +1791,94 @@
         <v>90</v>
       </c>
       <c r="C14">
-        <v>2678.73741857</v>
+        <v>2521.328795</v>
       </c>
       <c r="D14">
-        <v>981708183</v>
+        <v>1954391310</v>
       </c>
       <c r="E14">
-        <v>2.97347926E-11</v>
+        <v>1.46087584E-11</v>
       </c>
       <c r="F14">
-        <v>3.3300082</v>
+        <v>2.4609010438</v>
       </c>
       <c r="G14">
-        <v>27.592069</v>
+        <v>32.51609000000001</v>
       </c>
       <c r="H14">
-        <v>18.029001</v>
+        <v>23.394065</v>
       </c>
       <c r="I14">
-        <v>63.6987</v>
+        <v>121.573068</v>
       </c>
       <c r="J14">
-        <v>29.784949</v>
+        <v>37.558663</v>
       </c>
       <c r="K14">
-        <v>249.146413</v>
+        <v>410.0903</v>
       </c>
       <c r="L14">
-        <v>634.3330199999999</v>
+        <v>766.19943</v>
       </c>
       <c r="M14">
-        <v>81.311336</v>
+        <v>99.36509600000002</v>
       </c>
       <c r="N14">
-        <v>553059.3269999999</v>
+        <v>438753.7909999999</v>
       </c>
       <c r="O14">
-        <v>3808.960219999999</v>
+        <v>5215.75543</v>
       </c>
       <c r="P14">
-        <v>470.840775</v>
+        <v>381.086718</v>
       </c>
       <c r="Q14">
-        <v>1939.851020000001</v>
+        <v>1340.19586</v>
       </c>
       <c r="R14">
-        <v>77.36283299999999</v>
+        <v>71.70596639999999</v>
       </c>
       <c r="S14">
-        <v>70.235445</v>
+        <v>76.577044</v>
       </c>
       <c r="T14">
-        <v>17923.3636</v>
+        <v>21806.734</v>
       </c>
       <c r="U14">
-        <v>8859.19832</v>
+        <v>5961.072612</v>
       </c>
       <c r="V14">
-        <v>105.042737</v>
+        <v>110.839517</v>
       </c>
       <c r="W14">
-        <v>166.93381</v>
+        <v>141.15843</v>
       </c>
       <c r="X14">
-        <v>111.72869</v>
+        <v>108.50367</v>
       </c>
       <c r="Y14">
-        <v>329.43388</v>
+        <v>328.29626</v>
       </c>
       <c r="Z14">
-        <v>355.08084</v>
+        <v>358.04636</v>
       </c>
       <c r="AA14">
-        <v>457.41808</v>
+        <v>452.4408099999999</v>
       </c>
       <c r="AB14">
-        <v>413.10237</v>
+        <v>415.34828</v>
       </c>
       <c r="AC14">
-        <v>395.28969</v>
+        <v>396.44043</v>
       </c>
       <c r="AD14">
-        <v>537.62294</v>
+        <v>451.96228</v>
       </c>
       <c r="AE14">
-        <v>283.6802099999999</v>
+        <v>309.00054</v>
       </c>
       <c r="AF14">
-        <v>340170.74638</v>
+        <v>377690.0739</v>
       </c>
       <c r="AG14">
         <v>10</v>
@@ -1892,94 +1892,94 @@
         <v>100</v>
       </c>
       <c r="C15">
-        <v>2678.2569118</v>
+        <v>2521.245652000001</v>
       </c>
       <c r="D15">
-        <v>696606041</v>
+        <v>1297043796</v>
       </c>
       <c r="E15">
-        <v>8.179767700000001E-12</v>
+        <v>6.3892003E-12</v>
       </c>
       <c r="F15">
-        <v>2.98045</v>
+        <v>2.2254606098</v>
       </c>
       <c r="G15">
-        <v>27.43361</v>
+        <v>32.513646</v>
       </c>
       <c r="H15">
-        <v>17.319924</v>
+        <v>22.213468</v>
       </c>
       <c r="I15">
-        <v>60.849659</v>
+        <v>94.45896</v>
       </c>
       <c r="J15">
-        <v>26.622133</v>
+        <v>36.74067599999999</v>
       </c>
       <c r="K15">
-        <v>177.244853</v>
+        <v>306.91222</v>
       </c>
       <c r="L15">
-        <v>612.2734600000001</v>
+        <v>766.01865</v>
       </c>
       <c r="M15">
-        <v>71.673393</v>
+        <v>97.94076299999999</v>
       </c>
       <c r="N15">
-        <v>495080.698</v>
+        <v>366826.2110000001</v>
       </c>
       <c r="O15">
-        <v>3807.931</v>
+        <v>5214.46003</v>
       </c>
       <c r="P15">
-        <v>414.6207249999999</v>
+        <v>374.7997399999999</v>
       </c>
       <c r="Q15">
-        <v>1924.26641</v>
+        <v>1146.17353</v>
       </c>
       <c r="R15">
-        <v>76.26731500000001</v>
+        <v>61.7264424</v>
       </c>
       <c r="S15">
-        <v>69.474996</v>
+        <v>69.028989</v>
       </c>
       <c r="T15">
-        <v>17797.0527</v>
+        <v>21789.6034</v>
       </c>
       <c r="U15">
-        <v>8554.686449000001</v>
+        <v>5822.138054</v>
       </c>
       <c r="V15">
-        <v>99.32640499999999</v>
+        <v>107.162057</v>
       </c>
       <c r="W15">
-        <v>164.94511</v>
+        <v>140.28525</v>
       </c>
       <c r="X15">
-        <v>111.66887</v>
+        <v>108.50278</v>
       </c>
       <c r="Y15">
-        <v>329.38844</v>
+        <v>328.19408</v>
       </c>
       <c r="Z15">
-        <v>354.54716</v>
+        <v>358.03928</v>
       </c>
       <c r="AA15">
-        <v>457.41808</v>
+        <v>452.4408099999999</v>
       </c>
       <c r="AB15">
-        <v>413.0936400000001</v>
+        <v>405.91732</v>
       </c>
       <c r="AC15">
-        <v>394.3894</v>
+        <v>396.38132</v>
       </c>
       <c r="AD15">
-        <v>525.67661</v>
+        <v>439.0239</v>
       </c>
       <c r="AE15">
-        <v>280.26483</v>
+        <v>308.57329</v>
       </c>
       <c r="AF15">
-        <v>324599.42005</v>
+        <v>341763.1328</v>
       </c>
       <c r="AG15">
         <v>10</v>
